--- a/resources/TestData_os.xlsx
+++ b/resources/TestData_os.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="630" yWindow="600" windowWidth="27495" windowHeight="11955"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -46,21 +49,12 @@
     <t>TextToAdd</t>
   </si>
   <si>
-    <t>Result</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
     <t>internet explorer</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Windows 7</t>
-  </si>
-  <si>
     <t>admin@.com</t>
   </si>
   <si>
@@ -124,9 +118,6 @@
     <t>33</t>
   </si>
   <si>
-    <t>OS X 10.6</t>
-  </si>
-  <si>
     <t>admin@.com</t>
   </si>
   <si>
@@ -146,26 +137,38 @@
   </si>
   <si>
     <t>999</t>
+  </si>
+  <si>
+    <t>MAC</t>
+  </si>
+  <si>
+    <t>WIN8</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
@@ -175,7 +178,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
@@ -191,195 +194,485 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
-    <xf fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1"/>
-    <xf fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1"/>
-    <xf fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="2"/>
-    <xf fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" customWidth="1" max="1" width="14.29"/>
-    <col min="2" customWidth="1" max="2" width="18.0"/>
-    <col min="3" customWidth="1" max="3" width="8.57"/>
-    <col min="4" customWidth="1" max="5" width="11.86"/>
-    <col min="6" customWidth="1" max="6" width="8.71"/>
-    <col min="7" customWidth="1" max="7" width="16.86"/>
-    <col min="8" customWidth="1" max="8" width="17.29"/>
-    <col min="9" customWidth="1" max="9" width="14.86"/>
-    <col min="10" customWidth="1" max="10" width="20.71"/>
-    <col min="11" customWidth="1" max="11" width="9.71"/>
-    <col min="12" customWidth="1" max="12" width="8.71"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" customWidth="1"/>
+    <col min="4" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" r="1" ht="14.25">
-      <c t="s" s="1" r="A1">
+    <row r="1" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c t="s" s="1" r="B1">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c t="s" s="1" r="C1">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c t="s" s="1" r="D1">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c t="s" s="1" r="E1">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c t="s" s="1" r="F1">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c t="s" s="1" r="G1">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c t="s" s="1" r="H1">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c t="s" s="1" r="I1">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c t="s" s="1" r="J1">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c t="s" s="1" r="K1">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c t="s" s="1" r="L1">
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="3"/>
     </row>
-    <row customHeight="1" r="2" ht="14.25">
-      <c t="s" s="2" r="A2">
-        <v>12</v>
-      </c>
-      <c t="s" s="3" r="B2">
-        <v>13</v>
-      </c>
-      <c t="s" s="3" r="C2">
-        <v>14</v>
-      </c>
-      <c t="s" s="3" r="D2">
-        <v>15</v>
-      </c>
-      <c t="s" s="4" r="E2">
-        <v>16</v>
-      </c>
-      <c t="s" s="2" r="F2">
-        <v>17</v>
-      </c>
-      <c t="s" s="2" r="G2">
-        <v>18</v>
-      </c>
-      <c t="s" s="2" r="H2">
-        <v>19</v>
-      </c>
-      <c t="s" s="2" r="I2">
+    <row r="3" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c t="s" s="2" r="J2">
+      <c r="B3" s="3" t="s">
         <v>21</v>
       </c>
-      <c t="s" s="2" r="K2">
+      <c r="C3" s="5" t="s">
         <v>22</v>
       </c>
-      <c s="3" r="L2"/>
+      <c r="D3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="3"/>
     </row>
-    <row customHeight="1" r="3" ht="14.25">
-      <c t="s" s="2" r="A3">
-        <v>23</v>
-      </c>
-      <c t="s" s="3" r="B3">
-        <v>24</v>
-      </c>
-      <c t="s" s="3" r="C3">
-        <v>25</v>
-      </c>
-      <c t="s" s="3" r="D3">
-        <v>26</v>
-      </c>
-      <c t="s" s="4" r="E3">
-        <v>27</v>
-      </c>
-      <c t="s" s="2" r="F3">
-        <v>28</v>
-      </c>
-      <c t="s" s="2" r="G3">
-        <v>29</v>
-      </c>
-      <c t="s" s="2" r="H3">
-        <v>30</v>
-      </c>
-      <c t="s" s="2" r="I3">
+    <row r="4" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
-      <c t="s" s="2" r="J3">
+      <c r="B4" s="3" t="s">
         <v>32</v>
       </c>
-      <c t="s" s="2" r="K3">
+      <c r="C4" s="5" t="s">
         <v>33</v>
       </c>
-      <c s="3" r="L3"/>
-    </row>
-    <row customHeight="1" r="4" ht="14.25">
-      <c t="s" s="2" r="A4">
+      <c r="D4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>34</v>
       </c>
-      <c t="s" s="3" r="B4">
+      <c r="F4" s="2" t="s">
         <v>35</v>
       </c>
-      <c t="s" s="3" r="C4">
+      <c r="G4" s="2" t="s">
         <v>36</v>
       </c>
-      <c t="s" s="3" r="D4">
+      <c r="H4" s="2" t="s">
         <v>37</v>
       </c>
-      <c t="s" s="4" r="E4">
+      <c r="I4" s="2" t="s">
         <v>38</v>
       </c>
-      <c t="s" s="2" r="F4">
+      <c r="J4" s="2" t="s">
         <v>39</v>
       </c>
-      <c t="s" s="2" r="G4">
+      <c r="K4" s="5" t="s">
         <v>40</v>
       </c>
-      <c t="s" s="2" r="H4">
-        <v>41</v>
-      </c>
-      <c t="s" s="2" r="I4">
-        <v>42</v>
-      </c>
-      <c t="s" s="2" r="J4">
-        <v>43</v>
-      </c>
-      <c t="s" s="2" r="K4">
-        <v>44</v>
-      </c>
-      <c s="3" r="L4"/>
+      <c r="L4" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -387,6 +680,7 @@
     <hyperlink ref="E3" r:id="rId2"/>
     <hyperlink ref="E4" r:id="rId3"/>
   </hyperlinks>
-  <drawing r:id="rId4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>